--- a/2022/MediaRepresentationVI/mr6_06.xlsx
+++ b/2022/MediaRepresentationVI/mr6_06.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sammy/DocTHU/GitHub/sammyppr.github.io/2022/MediaRepresentationVI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6530E7-6DF3-FE4F-86C8-E7960420C1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFD998A-0607-6049-A9F5-9B5734F6D697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="2200" windowWidth="27900" windowHeight="16940" xr2:uid="{04EF920B-E3CF-DC43-B5D4-56EB7400E7DC}"/>
+    <workbookView xWindow="1020" yWindow="1980" windowWidth="27900" windowHeight="16940" activeTab="1" xr2:uid="{04EF920B-E3CF-DC43-B5D4-56EB7400E7DC}"/>
   </bookViews>
   <sheets>
     <sheet name="単純集計" sheetId="1" r:id="rId1"/>
+    <sheet name="クロス集計" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="14">
   <si>
     <t>Q1 現在何かバイトをしていますか？はい、いいえでお答えください</t>
     <rPh sb="3" eb="6">
@@ -95,6 +96,40 @@
     <t>集計</t>
     <rPh sb="0" eb="2">
       <t>タンジュn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q2 現在何かバイトをしていますか？はい、いいえでお答えください。性別もお答えください。</t>
+    <rPh sb="3" eb="6">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイベテゥ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>セイベテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <rPh sb="0" eb="1">
+      <t>オンア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -480,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3AC0AF-9BD9-D44E-9A1B-EC3207B5A290}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -524,8 +559,14 @@
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="1">
+        <f>COUNTIF($B$5:$B$24,E5)</f>
+        <v>12</v>
+      </c>
+      <c r="G5" s="1">
+        <f>F5/F7</f>
+        <v>0.6</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
@@ -537,7 +578,10 @@
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <f>COUNTIF($B$5:$B$24,E6)</f>
+        <v>8</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
@@ -550,7 +594,10 @@
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <f>SUM(F5:F6)</f>
+        <v>20</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
@@ -687,6 +734,301 @@
       </c>
       <c r="B24" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0041F60B-F02E-D34A-B8CA-632728C32571}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <f>COUNTIF($B$5:$B$24,E5)</f>
+        <v>12</v>
+      </c>
+      <c r="G5" s="1">
+        <f>F5/F7</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <f>COUNTIF($B$5:$B$24,E6)</f>
+        <v>8</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1">
+        <f>SUM(F5:F6)</f>
+        <v>20</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/2022/MediaRepresentationVI/mr6_06.xlsx
+++ b/2022/MediaRepresentationVI/mr6_06.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sammy/DocTHU/GitHub/sammyppr.github.io/2022/MediaRepresentationVI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFD998A-0607-6049-A9F5-9B5734F6D697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8297D868-C95F-A44D-AAED-0E6337FCD758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="1980" windowWidth="27900" windowHeight="16940" activeTab="1" xr2:uid="{04EF920B-E3CF-DC43-B5D4-56EB7400E7DC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24400" windowHeight="18180" activeTab="3" xr2:uid="{04EF920B-E3CF-DC43-B5D4-56EB7400E7DC}"/>
   </bookViews>
   <sheets>
     <sheet name="単純集計" sheetId="1" r:id="rId1"/>
     <sheet name="クロス集計" sheetId="2" r:id="rId2"/>
+    <sheet name="テーブル" sheetId="3" r:id="rId3"/>
+    <sheet name="スピル" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,68 +38,90 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="21">
   <si>
     <t>Q1 現在何かバイトをしていますか？はい、いいえでお答えください</t>
     <rPh sb="3" eb="6">
       <t>ゲンザイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>個人ID</t>
     <rPh sb="0" eb="2">
       <t>コジn</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>答え</t>
     <rPh sb="0" eb="1">
       <t>コタエ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>はい</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>いいえ</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>回答数</t>
     <rPh sb="0" eb="3">
       <t>カイトウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>割合</t>
     <rPh sb="0" eb="2">
       <t>ワリアイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>計</t>
     <rPh sb="0" eb="1">
       <t xml:space="preserve">ケイ </t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>データ</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>集計</t>
     <rPh sb="0" eb="2">
       <t>タンジュn</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Q2 現在何かバイトをしていますか？はい、いいえでお答えください。性別もお答えください。</t>
@@ -110,35 +134,95 @@
     <rPh sb="33" eb="35">
       <t>セイベテゥ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>性別</t>
     <rPh sb="0" eb="2">
       <t>セイベテゥ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>男</t>
     <rPh sb="0" eb="1">
       <t>オトコ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>女</t>
     <rPh sb="0" eb="1">
       <t>オンア</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>総計</t>
+    <rPh sb="0" eb="2">
+      <t>ソウケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>女</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>総計</t>
+    <rPh sb="0" eb="2">
+      <t>ソウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>答え+性別</t>
+    <rPh sb="0" eb="1">
+      <t>コタエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイベテゥ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Q3 現在何かバイトをしていますか？はい、いいえでお答えください</t>
+    <rPh sb="3" eb="6">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>集計2</t>
+    <rPh sb="0" eb="2">
+      <t>タンジュn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>値</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -163,7 +247,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -186,21 +270,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -516,7 +629,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H25"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -559,14 +672,8 @@
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="1">
-        <f>COUNTIF($B$5:$B$24,E5)</f>
-        <v>12</v>
-      </c>
-      <c r="G5" s="1">
-        <f>F5/F7</f>
-        <v>0.6</v>
-      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
@@ -578,10 +685,7 @@
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1">
-        <f>COUNTIF($B$5:$B$24,E6)</f>
-        <v>8</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
@@ -594,10 +698,7 @@
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="1">
-        <f>SUM(F5:F6)</f>
-        <v>20</v>
-      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
@@ -737,7 +838,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -745,17 +846,682 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0041F60B-F02E-D34A-B8CA-632728C32571}">
+  <dimension ref="A1:R24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="4" max="4" width="4.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="18" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="5.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>9</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <f>K5&amp;L5</f>
+        <v>はい男</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="1">
+        <f>COUNTIF($M$5:$M$24,P$4&amp;$O5)</f>
+        <v>6</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>COUNTIF($M$5:$M$24,Q$4&amp;$O5)</f>
+        <v>3</v>
+      </c>
+      <c r="R5" s="1">
+        <f>P5+Q5</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="1" t="str">
+        <f t="shared" ref="M6:M24" si="0">K6&amp;L6</f>
+        <v>はい男</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="1">
+        <f>COUNTIF($M$5:$M$24,P$4&amp;$O6)</f>
+        <v>6</v>
+      </c>
+      <c r="Q6" s="1">
+        <f>COUNTIF($M$5:$M$24,Q$4&amp;$O6)</f>
+        <v>5</v>
+      </c>
+      <c r="R6" s="1">
+        <f>P6+Q6</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>いいえ女</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="1">
+        <f>SUM(P5:P6)</f>
+        <v>12</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" ref="Q7:R7" si="1">SUM(Q5:Q6)</f>
+        <v>8</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>はい男</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>はい女</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="J10" s="1">
+        <v>6</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>はい女</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="J11" s="1">
+        <v>7</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>いいえ男</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="J12" s="1">
+        <v>8</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>はい男</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="J13" s="1">
+        <v>9</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>はい女</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="1">
+        <v>10</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>はい女</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="1">
+        <v>11</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>いいえ女</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1">
+        <v>12</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>いいえ男</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="1">
+        <v>13</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>はい男</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="1">
+        <v>14</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>はい女</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="1">
+        <v>15</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>いいえ女</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="1">
+        <v>16</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>いいえ男</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="1">
+        <v>17</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>いいえ女</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="1">
+        <v>18</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>いいえ女</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="1">
+        <v>19</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>はい女</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="1">
+        <v>20</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>はい男</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA869C69-AE89-6043-A5E6-1C48CFC404F1}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -773,9 +1539,6 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>5</v>
@@ -791,9 +1554,6 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
@@ -801,8 +1561,8 @@
         <f>COUNTIF($B$5:$B$24,E5)</f>
         <v>12</v>
       </c>
-      <c r="G5" s="1">
-        <f>F5/F7</f>
+      <c r="G5" s="5">
+        <f>F5/$F$7</f>
         <v>0.6</v>
       </c>
     </row>
@@ -813,9 +1573,6 @@
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
@@ -823,7 +1580,10 @@
         <f>COUNTIF($B$5:$B$24,E6)</f>
         <v>8</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="5">
+        <f t="shared" ref="G6:G7" si="0">F6/$F$7</f>
+        <v>0.4</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
@@ -831,9 +1591,6 @@
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -842,7 +1599,10 @@
         <f>SUM(F5:F6)</f>
         <v>20</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
@@ -850,9 +1610,6 @@
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -862,9 +1619,6 @@
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
@@ -873,8 +1627,8 @@
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
+      <c r="E10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -884,8 +1638,12 @@
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -895,9 +1653,11 @@
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
@@ -906,9 +1666,11 @@
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
@@ -917,9 +1679,11 @@
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
@@ -928,9 +1692,6 @@
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
@@ -939,101 +1700,288 @@
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B53A5C-7EA5-3845-A8AE-7CD4A365113D}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" cm="1">
+        <f t="array" ref="B2:B5">A2:A5</f>
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <f>SUM(_xlfn.ANCHORARRAY(B2))</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>400</v>
+      </c>
+      <c r="B5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1">
+        <v>8</v>
+      </c>
+      <c r="J10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2022/MediaRepresentationVI/mr6_06.xlsx
+++ b/2022/MediaRepresentationVI/mr6_06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sammy/DocTHU/GitHub/sammyppr.github.io/2022/MediaRepresentationVI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8297D868-C95F-A44D-AAED-0E6337FCD758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB806C7-7F51-D945-956F-E12275374923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24400" windowHeight="18180" activeTab="3" xr2:uid="{04EF920B-E3CF-DC43-B5D4-56EB7400E7DC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24400" windowHeight="18180" xr2:uid="{04EF920B-E3CF-DC43-B5D4-56EB7400E7DC}"/>
   </bookViews>
   <sheets>
     <sheet name="単純集計" sheetId="1" r:id="rId1"/>
@@ -36,28 +36,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -628,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3AC0AF-9BD9-D44E-9A1B-EC3207B5A290}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1514,7 +1492,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1776,51 +1754,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B53A5C-7EA5-3845-A8AE-7CD4A365113D}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>100</v>
       </c>
-      <c r="B2" cm="1">
-        <f t="array" ref="B2:B5">A2:A5</f>
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <f>SUM(_xlfn.ANCHORARRAY(B2))</f>
-        <v>1000</v>
-      </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>200</v>
       </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>300</v>
       </c>
-      <c r="B4">
-        <v>300</v>
-      </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5">
-        <v>400</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="1">
         <v>400</v>
       </c>
     </row>
